--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_48.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_48.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,638 +488,664 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1988636363636364</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_92</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_95</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1613636363636363</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D'], ['B:min', 'F#:maj/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(32.233898, 36.959159)]</t>
+          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min/G', 'G', 'C:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(9.54, 11.42)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:00.360000', '0:00:02.440000'), ('0:00:13.560000', '0:00:16.280000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:20.920000', '0:00:24.020000'), ('0:00:11.240000', '0:00:15.780000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2870813397129187</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F']]</t>
-        </is>
+          <t>isophonics_271</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_78</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1483870967741935</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E', 'A:min', 'E', 'A:min']]</t>
+          <t>[['E/5', 'E', 'C#:min'], ['A', 'E', 'E/5'], ['E', 'C#:min', 'A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(72.98, 75.48)]</t>
+          <t>[['A', 'A', 'F#:min'], ['D', 'A', 'A'], ['A', 'F#:min', 'D']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(31.051451, 41.036031)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:01:02.670131', '0:01:10.008185'), ('0:00:59.907505', '0:01:03.843287'), ('0:00:57.898979', '0:01:01.881201')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:22.761927', '0:00:31.759659'), ('0:00:40.722562', '0:00:47.769818'), ('0:00:00.440395', '0:00:06.589229')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1806020066889632</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D#:min/A#', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(134.22, 139.56)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(2.86, 5.3)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:16.560000', '0:00:45.260000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:06.980000', '0:01:23.840000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C']]</t>
-        </is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A:maj6']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(72.26, 75.56)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(4.511043, 10.664331)]</t>
+          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:21.100000', '0:01:27.580000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1715686274509804</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_194</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2363636363636364</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(69.36, 73.2)]</t>
+          <t>[['C:min', 'G:7/D', 'C:min/D#'], ['C:min', 'G:maj/B', 'C:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(25.015959, 36.625937)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:08.460000', '0:00:13.460000'), ('0:00:00.240000', '0:00:05.080000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:02', '0:00:04.320000'), ('0:00:16.240000', '0:00:19.080000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_12</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
-        </is>
+          <t>isophonics_232</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_117</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1987179487179487</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
+          <t>[['C', 'F', 'G']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(30.06, 43.78)]</t>
+          <t>[['C', 'F', 'G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(94.06, 113.5)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:23.725555', '0:00:31.039841')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:01.110561', '0:00:06.213665')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_36</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.05025575447570332</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Ab']]</t>
-        </is>
+          <t>isophonics_50</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.425</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'G']]</t>
+          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(26.13, 29.49)]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(54.89, 61.21)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:58.300068', '0:01:03.443287'), ('0:00:37.936167', '0:00:42.951678')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:02:37.840000', '0:02:40.980000'), ('0:02:34.760000', '0:02:39.840000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_15</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.08084239130434782</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(20.08, 22.56)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(12.03, 14.36)]</t>
+          <t>[('0:00:02.360000', '0:00:11.660000'), ('0:01:00.040000', '0:01:07.080000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:03.840000', '0:01:05.240000'), ('0:01:02.200000', '0:01:04.400000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2392857142857143</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4583333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(251.5, 255.38)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(63.1, 64.5)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(2.58, 5.02)]</t>
+          <t>[('0:01:02.100000', '0:01:11.780000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:16.040000', '0:00:21')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1528471528471528</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'F'], ['C:7', 'F', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj'], ['E:7', 'A:maj', 'E:7']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(9.18, 12.7), (24.12, 27.0)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(7.76, 14.32), (21.1, 23.8)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:17.320000', '0:01:02.460000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:16.320000', '0:01:01.580000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0992063492063492</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'D#:maj']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(31.89, 34.57)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(80.48, 93.6)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:00:00.360000', '0:02:07.800000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:01.440000', '0:02:10.840000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.3314393939393939</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(0.58, 10.18)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(16.84, 21.54)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:14.440000', '0:00:41.800000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.5050505050505051</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(16.04, 21.0)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(8.74, 23.22)]</t>
+          <t>[('0:01:01.440000', '0:01:04.220000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:23.460000', '0:00:26.480000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(47.58, 50.04)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(130.84, 135.98)]</t>
+          <t>[('0:00:41.140000', '0:01:25.340000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:47.800000', '0:01:38.980000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_86</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1004700352526439</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F:7', 'Bb', 'Bb'], ['Bb', 'Bb', 'F:7', 'Bb']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#'], ['F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(14.82, 17.23), (14.59, 16.26)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(19.14, 22.86), (21.02, 24.16)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
